--- a/source/_drafts/mark/记账.xlsx
+++ b/source/_drafts/mark/记账.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rxyhc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rxyhc\Desktop\Finder\Boke\source\_drafts\mark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82686149-64A0-466F-8C0F-66F2BCCCBE79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9094082F-061D-4384-BEAC-1EAAAB16D1C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$K$229</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$K$229</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="684">
   <si>
     <t>来自</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2180,6 +2181,18 @@
   </si>
   <si>
     <t>2020-06-2020-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-02-10 104704</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-02-11 104713</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+5000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2226,7 +2239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2237,6 +2250,7 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2519,7 +2533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -4098,11 +4112,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB9D50D-4DA6-4D6B-8417-CEFA15701E9B}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.125" customWidth="1"/>
+    <col min="2" max="2" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>682</v>
+      </c>
+      <c r="B3" s="4">
+        <v>-3000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B2" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D85C617-A2F0-448E-8A1D-AAAE2B3420BB}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K229"/>
   <sheetViews>
-    <sheetView topLeftCell="A203" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N156" sqref="N156"/>
     </sheetView>
   </sheetViews>

--- a/source/_drafts/mark/记账.xlsx
+++ b/source/_drafts/mark/记账.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PythonProjects\Boke\source\_drafts\mark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cccccccccchy/Boke/source/_drafts/mark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B3FC63-57BA-451C-96DF-DF3C009C839D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3430C8-BE0B-7548-90DC-C6BFAEFE29B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33000" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="110">
   <si>
     <t>来自</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -463,15 +463,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1000</t>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年 2 月 18 日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,7 +475,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,8 +516,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -805,9 +804,9 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -824,7 +823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -841,7 +840,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -855,7 +854,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -869,7 +868,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -883,7 +882,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -897,7 +896,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>94</v>
       </c>
@@ -911,7 +910,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -925,7 +924,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -939,7 +938,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -953,7 +952,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -967,7 +966,7 @@
         <v>543.84</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -981,7 +980,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -995,7 +994,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1009,7 +1008,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -1023,7 +1022,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1037,7 +1036,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>94</v>
       </c>
@@ -1051,7 +1050,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1065,7 +1064,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1079,7 +1078,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1093,7 +1092,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>94</v>
       </c>
@@ -1107,7 +1106,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>94</v>
       </c>
@@ -1121,7 +1120,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1135,7 +1134,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>100</v>
       </c>
@@ -1149,7 +1148,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1163,7 +1162,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1177,7 +1176,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -1191,7 +1190,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>94</v>
       </c>
@@ -1205,7 +1204,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>100</v>
       </c>
@@ -1219,7 +1218,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -1233,7 +1232,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1247,7 +1246,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>100</v>
       </c>
@@ -1261,7 +1260,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -1275,7 +1274,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -1289,7 +1288,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>30</v>
       </c>
@@ -1303,7 +1302,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -1317,7 +1316,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -1331,7 +1330,7 @@
         <v>71.97</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -1345,7 +1344,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -1359,7 +1358,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>88</v>
       </c>
@@ -1373,7 +1372,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -1387,7 +1386,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -1401,7 +1400,7 @@
         <v>62.73</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -1415,7 +1414,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -1429,7 +1428,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -1443,7 +1442,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>30</v>
       </c>
@@ -1457,7 +1456,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -1471,7 +1470,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -1485,7 +1484,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -1499,7 +1498,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -1513,7 +1512,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -1527,7 +1526,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -1541,7 +1540,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -1555,7 +1554,7 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -1569,7 +1568,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>30</v>
       </c>
@@ -1583,7 +1582,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>30</v>
       </c>
@@ -1597,7 +1596,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>30</v>
       </c>
@@ -1611,7 +1610,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>30</v>
       </c>
@@ -1625,7 +1624,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -1639,7 +1638,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -1653,7 +1652,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -1667,7 +1666,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -1681,7 +1680,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>30</v>
       </c>
@@ -1695,7 +1694,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>30</v>
       </c>
@@ -1709,7 +1708,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -1723,7 +1722,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>30</v>
       </c>
@@ -1737,7 +1736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -1751,7 +1750,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>88</v>
       </c>
@@ -1765,7 +1764,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>30</v>
       </c>
@@ -1779,7 +1778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>30</v>
       </c>
@@ -1793,7 +1792,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -1807,7 +1806,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>30</v>
       </c>
@@ -1821,7 +1820,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>30</v>
       </c>
@@ -1835,7 +1834,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>1</v>
       </c>
@@ -1849,7 +1848,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -1863,7 +1862,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>30</v>
       </c>
@@ -1877,7 +1876,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>30</v>
       </c>
@@ -1891,7 +1890,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>1</v>
       </c>
@@ -1905,7 +1904,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>88</v>
       </c>
@@ -1919,7 +1918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>30</v>
       </c>
@@ -1933,7 +1932,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>30</v>
       </c>
@@ -1947,7 +1946,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>1</v>
       </c>
@@ -1961,7 +1960,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>30</v>
       </c>
@@ -1975,7 +1974,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>30</v>
       </c>
@@ -1989,7 +1988,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>30</v>
       </c>
@@ -2003,7 +2002,7 @@
         <v>15.42</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>30</v>
       </c>
@@ -2017,7 +2016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>30</v>
       </c>
@@ -2031,7 +2030,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>30</v>
       </c>
@@ -2045,7 +2044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>30</v>
       </c>
@@ -2059,7 +2058,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -2073,7 +2072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>30</v>
       </c>
@@ -2087,7 +2086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>30</v>
       </c>
@@ -2101,7 +2100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>30</v>
       </c>
@@ -2115,7 +2114,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>30</v>
       </c>
@@ -2129,7 +2128,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>30</v>
       </c>
@@ -2143,7 +2142,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>30</v>
       </c>
@@ -2157,7 +2156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>30</v>
       </c>
@@ -2171,7 +2170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>30</v>
       </c>
@@ -2185,7 +2184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>1</v>
       </c>
@@ -2199,7 +2198,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>1</v>
       </c>
@@ -2213,7 +2212,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>30</v>
       </c>
@@ -2227,7 +2226,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>30</v>
       </c>
@@ -2241,7 +2240,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>1</v>
       </c>
@@ -2255,7 +2254,7 @@
         <v>9.41</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>30</v>
       </c>
@@ -2269,7 +2268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -2283,7 +2282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>30</v>
       </c>
@@ -2297,7 +2296,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>30</v>
       </c>
@@ -2311,7 +2310,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>1</v>
       </c>
@@ -2325,7 +2324,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>30</v>
       </c>
@@ -2339,7 +2338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>30</v>
       </c>
@@ -2353,7 +2352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>30</v>
       </c>
@@ -2368,7 +2367,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{04776BF6-1C95-452A-819D-775E3DE7577A}">
+  <autoFilter ref="A1:E1" xr:uid="{08FDACC0-94F6-C740-B111-97FCEEAB8F79}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E111">
       <sortCondition descending="1" ref="D1"/>
     </sortState>
@@ -2381,61 +2380,115 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB9D50D-4DA6-4D6B-8417-CEFA15701E9B}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.125" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
         <v>44237</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2">
+        <v>5000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>44238</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>44258</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>44259</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>44265</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>44279</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>44238</v>
-      </c>
-      <c r="B3" s="1">
-        <v>-3000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>44245</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>44246</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>110</v>
+      <c r="B33" s="2">
+        <f>SUM(B2:B32)</f>
+        <v>6000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B2" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/source/_drafts/mark/记账.xlsx
+++ b/source/_drafts/mark/记账.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cccccccccchy/Boke/source/_drafts/mark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3430C8-BE0B-7548-90DC-C6BFAEFE29B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F33A0B-8574-2E41-8FE6-BA629A5E44B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33000" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33000" windowHeight="19460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -514,10 +514,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2367,7 +2368,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{08FDACC0-94F6-C740-B111-97FCEEAB8F79}">
+  <autoFilter ref="A1:E1" xr:uid="{693C6B7C-9CEB-1244-AFEB-BAF9F64AB144}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E111">
       <sortCondition descending="1" ref="D1"/>
     </sortState>
@@ -2383,7 +2384,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2477,13 +2478,93 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3">
+        <v>44279</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3">
+        <v>44286</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3">
+        <v>44288</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3">
+        <v>44289</v>
+      </c>
+      <c r="B14" s="2">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3">
+        <v>44303</v>
+      </c>
+      <c r="B15" s="2">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3">
+        <v>44309</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3">
+        <v>44311</v>
+      </c>
+      <c r="B17" s="2">
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3">
+        <v>44315</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3">
+        <v>44316</v>
+      </c>
+      <c r="B19" s="2">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3">
+        <v>44317</v>
+      </c>
+      <c r="B20" s="2">
+        <v>-2000</v>
+      </c>
+    </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>108</v>
       </c>
       <c r="B33" s="2">
         <f>SUM(B2:B32)</f>
-        <v>6000</v>
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
